--- a/biology/Zoologie/Étang_des_Essarts/Étang_des_Essarts.xlsx
+++ b/biology/Zoologie/Étang_des_Essarts/Étang_des_Essarts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tang_des_Essarts</t>
+          <t>Étang_des_Essarts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étang des Essarts est un étang français à Saint-Michel-en-Brenne, dans l'Indre.
 Protégé au sein de la réserve naturelle nationale de Chérine, dans le parc naturel régional de la Brenne, il constitue un site d'observation des oiseaux et est d'ailleurs équipé d'un observatoire ornithologique, l'observatoire de l'étang des Essarts.
